--- a/src/main/resources/sysint.xlsx
+++ b/src/main/resources/sysint.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnkruidhof/Projects/Java/excel-to-json/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnkruidhof/Projects/Java/excel-to-service/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA7BF75-5446-9B46-BB21-058BA165BD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9722CE7-BF1B-B140-8330-D3CC0082F913}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{E2C2EB1D-7365-9346-8E03-C409FC3AE84C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{90A421D8-C3BD-1F4F-B644-077035380914}" name="sysint" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/johnkruidhof/Projects/Java/excel-to-json/src/main/resources/sysint.csv" decimal="," thousands="." tab="0" semicolon="1">
+    <textPr sourceFile="/Users/johnkruidhof/Projects/Java/excel-to-json/src/main/resources/sysint.csv" decimal="," thousands="." tab="0" semicolon="1">
       <textFields count="4">
         <textField type="text"/>
         <textField/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>FILLER</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -468,9 +474,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B0A60-B653-1444-BE41-420A5B94153F}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -480,7 +488,7 @@
     <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +501,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -508,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,7 +530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -533,7 +544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -544,7 +555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -558,7 +569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -569,7 +580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -580,7 +591,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -591,7 +602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -602,7 +613,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -612,8 +623,11 @@
       <c r="C11">
         <v>135</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -623,8 +637,11 @@
       <c r="C12">
         <v>171</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -636,6 +653,9 @@
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
